--- a/website_up2d/api/temp_file/peserta.xlsx
+++ b/website_up2d/api/temp_file/peserta.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,21 +480,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rifqi Alfaizi</t>
+          <t>Shaquille Rizki Ramadhana</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1804105010053</t>
+          <t>1804105010026</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Teknik Elektro</t>
+          <t>Teknik Elektro &amp; Komputer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -521,21 +521,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ananda Putra Sangiang</t>
+          <t>Mifthahul Fiqri</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1804105010004</t>
+          <t>1804105010064</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Informatika</t>
+          <t>Teknik Elektro &amp; Komputer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-01-23</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -562,11 +562,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Muhammad nizam</t>
+          <t>Maulana Imam Muttaqin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Teknik Elektro</t>
+          <t>Teknik Elektro &amp; Komputer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -586,221 +586,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="I4" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Wahyu Pratama</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1804105010007</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Teknik Elektro</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Universitas Syiah Kuala</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2022-01-25</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2022-01-26</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mifthahul Fiqri</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1804105010064</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Teknik Elektro &amp; Komputer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Universitas Syiah Kuala</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2022-01-28</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2022-02-21</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Shaquile Rizky Ramadhana</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1804105010028</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Teknik Elektro</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Universitas Syiah Kuala</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2022-01-25</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>muhammad jurej alhamdi</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1804105010013</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Teknik Elektro &amp; Komputer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Universitas Syiah Kuala</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2022-01-27</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2022-02-04</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Maulana Imam Muttaqin</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1804105010004</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Teknik Elektro &amp; Komputer</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Universitas Syiah Kuala</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2022-01-24</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2022-01-29</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/website_up2d/api/temp_file/peserta.xlsx
+++ b/website_up2d/api/temp_file/peserta.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shaquille Rizki Ramadhana</t>
+          <t>Shaquille Rizki Ramadha na</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/website_up2d/api/temp_file/peserta.xlsx
+++ b/website_up2d/api/temp_file/peserta.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-27</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
